--- a/output/SharedMedicinesList/organization-ident-1.xlsx
+++ b/output/SharedMedicinesList/organization-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="384">
   <si>
     <t>Path</t>
   </si>
@@ -1142,19 +1142,33 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -14132,9 +14146,11 @@
       <c r="L115" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M115" s="2"/>
+      <c r="M115" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="N115" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>40</v>
@@ -14192,19 +14208,19 @@
         <v>50</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>40</v>
@@ -14212,7 +14228,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14238,14 +14254,14 @@
         <v>308</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14294,7 +14310,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14309,10 +14325,10 @@
         <v>40</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -14323,7 +14339,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14349,14 +14365,14 @@
         <v>319</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>40</v>
@@ -14405,7 +14421,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14420,10 +14436,10 @@
         <v>40</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>40</v>
@@ -14434,7 +14450,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14457,17 +14473,17 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14516,7 +14532,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>

--- a/output/SharedMedicinesList/organization-ident-1.xlsx
+++ b/output/SharedMedicinesList/organization-ident-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organization of which this organization forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}inv-dh-org-02:The organisation shall at least have one identifier with a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>

--- a/output/SharedMedicinesList/organization-ident-1.xlsx
+++ b/output/SharedMedicinesList/organization-ident-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organization of which this organization forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}inv-dh-org-02:The organisation shall at least have one identifier with a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organization of which this organization forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}inv-dh-org-02:At least one organisation identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>

--- a/output/SharedMedicinesList/organization-ident-1.xlsx
+++ b/output/SharedMedicinesList/organization-ident-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organization of which this organization forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}inv-dh-org-02:At least one organisation identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}org-1:The organization SHALL at least have a name or an id, and possibly more than one {(identifier.count() + name.count()) &gt; 0}inv-dh-org-01:If present, the organisation of which this organisation forms a part shall at least have a reference, an identifier or a display {partOf.exists() implies (partOf.reference.exists() or partOf.identifier.exists() or partOf.display.exists())}inv-dh-org-02:At least one organisation identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>

--- a/output/SharedMedicinesList/organization-ident-1.xlsx
+++ b/output/SharedMedicinesList/organization-ident-1.xlsx
@@ -578,7 +578,7 @@
     <t>http://ns.electronichealth.net.au/id/hi/hpio/1.0</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
